--- a/data/evaluation/evaluation_Center_Spring_Clementines.xlsx
+++ b/data/evaluation/evaluation_Center_Spring_Clementines.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2502.896154771155</v>
+        <v>2512.515202390202</v>
       </c>
       <c r="C3" t="n">
-        <v>10342345.55397785</v>
+        <v>10350072.18407989</v>
       </c>
       <c r="D3" t="n">
-        <v>3215.951733776154</v>
+        <v>3217.152807076452</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1717801275702512</v>
+        <v>0.1711613754154305</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2472.007365378185</v>
+        <v>2453.061816865406</v>
       </c>
       <c r="C4" t="n">
-        <v>10113916.33432814</v>
+        <v>9948443.65992444</v>
       </c>
       <c r="D4" t="n">
-        <v>3180.238408410309</v>
+        <v>3154.115352983216</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1900728463901853</v>
+        <v>0.2033239756016366</v>
       </c>
     </row>
     <row r="5">
